--- a/Monte_Carlo/HistoricalQuotes_INTEL.xlsx
+++ b/Monte_Carlo/HistoricalQuotes_INTEL.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Industrial_Project_234313\Monte_Carlo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idoye/PycharmProjects/Industrial_Project_234313/Monte_Carlo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:140008_{287AF5C0-61D3-4C9B-B07C-803E85485574}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8710D75A-CCE1-9640-96FF-9AC224D9F5CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HistoricalQuotes_INTEL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -54,20 +54,23 @@
   <si>
     <t>last_price</t>
   </si>
+  <si>
+    <t>2014,2015,2016 Statistics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="[$-1010000]d\.m\.yy;@"/>
-    <numFmt numFmtId="166" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d\.m\.yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -75,7 +78,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -83,7 +86,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="major"/>
@@ -92,7 +95,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -101,7 +104,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -110,7 +113,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -118,7 +121,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -126,7 +129,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -134,7 +137,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -142,7 +145,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -151,7 +154,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -160,7 +163,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -168,7 +171,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -177,7 +180,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -185,7 +188,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -194,7 +197,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -203,7 +206,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -211,7 +214,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -563,56 +566,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - הדגשה6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - הדגשה6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - הדגשה6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="הדגשה1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="הדגשה2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="הדגשה3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="הדגשה4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="הדגשה5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="הדגשה6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="הערה" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="חישוב" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="טוב" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="טקסט אזהרה" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="טקסט הסברי" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="כותרת" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="כותרת 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="כותרת 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="כותרת 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="כותרת 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="ניטראלי" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="סה&quot;כ" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="פלט" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="קלט" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="רע" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="תא מסומן" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="תא מקושר" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,7 +631,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -923,22 +926,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2477"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="2" customWidth="1"/>
     <col min="2" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1142,6 +1145,12 @@
         <f t="shared" si="0"/>
         <v>-3.4004031692167945E-2</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -1154,6 +1163,13 @@
         <f t="shared" si="0"/>
         <v>6.4730662554244617E-2</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3">
+        <f>AVERAGE(C1260:C2015)</f>
+        <v>4.6391855769987403E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -1166,6 +1182,13 @@
         <f t="shared" si="0"/>
         <v>-2.3324672566409004E-2</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3">
+        <f>_xlfn.VAR.P(C1260:C2015)</f>
+        <v>2.0615143284522438E-4</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -1178,6 +1201,13 @@
         <f t="shared" si="0"/>
         <v>-4.1405989987835651E-2</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3">
+        <f>_xlfn.STDEV.P(C1260:C2015)</f>
+        <v>1.4357974538395881E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -1190,6 +1220,13 @@
         <f t="shared" si="0"/>
         <v>-1.3932113896868796E-2</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="3">
+        <f>G11-(G12/2)</f>
+        <v>3.6084284127726183E-4</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -1202,6 +1239,13 @@
         <f t="shared" si="0"/>
         <v>1.5576327136836792E-3</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3">
+        <f>B2015</f>
+        <v>36.79</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -30239,7 +30283,7 @@
         <v>47.96</v>
       </c>
       <c r="C2435" s="1">
-        <f t="shared" ref="C2435:C2477" si="38">LN(B2436/B2435)</f>
+        <f t="shared" ref="C2435:C2476" si="38">LN(B2436/B2435)</f>
         <v>8.7191750225676587E-3</v>
       </c>
     </row>

--- a/Monte_Carlo/HistoricalQuotes_INTEL.xlsx
+++ b/Monte_Carlo/HistoricalQuotes_INTEL.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idoye/PycharmProjects/Industrial_Project_234313/Monte_Carlo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IdoYe\PycharmProjects\Industrial_Project_234313\Monte_Carlo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8710D75A-CCE1-9640-96FF-9AC224D9F5CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5EE5A1AF-CEBF-4FCB-AECB-A443905A2FF2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HistoricalQuotes_INTEL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -70,7 +70,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -78,7 +78,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -86,7 +86,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="major"/>
@@ -95,7 +95,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -104,7 +104,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -113,7 +113,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -121,7 +121,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -129,7 +129,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -137,7 +137,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -145,7 +145,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -154,7 +154,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -163,7 +163,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -171,7 +171,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -180,7 +180,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -188,7 +188,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -197,7 +197,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -206,7 +206,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -214,7 +214,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -574,48 +574,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - הדגשה6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - הדגשה6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - הדגשה6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="הדגשה1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="הדגשה2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="הדגשה3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="הדגשה4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="הדגשה5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="הדגשה6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="הערה" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="חישוב" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="טוב" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="טקסט אזהרה" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="טקסט הסברי" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="כותרת" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="כותרת 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="כותרת 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="כותרת 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="כותרת 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="ניטראלי" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="סה&quot;כ" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="פלט" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="קלט" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="רע" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="תא מסומן" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="תא מקושר" xfId="12" builtinId="24" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -930,18 +930,18 @@
   <dimension ref="A1:J2477"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27" style="2" customWidth="1"/>
     <col min="2" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -990,8 +990,8 @@
         <v>6</v>
       </c>
       <c r="J2" s="3">
-        <f>AVERAGE(C1512:C2477)</f>
-        <v>2.852492412458189E-4</v>
+        <f>AVERAGE(C1764:C2477)</f>
+        <v>4.9705417966563385E-4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1016,8 +1016,8 @@
         <v>7</v>
       </c>
       <c r="J3" s="3">
-        <f>_xlfn.VAR.P(C1512:C2477)</f>
-        <v>2.3248415297012892E-4</v>
+        <f>_xlfn.VAR.P(C1764:C2477)</f>
+        <v>2.2164238936724703E-4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1042,8 +1042,8 @@
         <v>8</v>
       </c>
       <c r="J4" s="3">
-        <f>_xlfn.STDEV.P(C1512:C2477)</f>
-        <v>1.5247431028541461E-2</v>
+        <f>_xlfn.STDEV.P(C1764:C2477)</f>
+        <v>1.4887658961947207E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="J5" s="3">
         <f>J2-(J3/2)</f>
-        <v>1.6900716476075445E-4</v>
+        <v>3.8623298498201037E-4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
